--- a/file.xlsx
+++ b/file.xlsx
@@ -383,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,30 +425,226 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.74305</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+        <v>0.93455</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>98</v>
+      </c>
       <c r="F2">
-        <v>0</v>
+        <v>61.2476126955</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>44419.691</v>
       </c>
       <c r="H2">
-        <v>NAN</v>
+        <v>959.14009970573</v>
       </c>
       <c r="I2">
-        <v>NAN</v>
+        <v>1365.9651306907</v>
       </c>
       <c r="J2">
-        <v>NAN</v>
+        <v>-39303519.916995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>12000</v>
+      </c>
+      <c r="B3">
+        <v>0.70805</v>
+      </c>
+      <c r="C3">
+        <v>0.84955</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>98</v>
+      </c>
+      <c r="F3">
+        <v>53.0544059955</v>
+      </c>
+      <c r="G3">
+        <v>48017.991</v>
+      </c>
+      <c r="H3">
+        <v>1196.956066248</v>
+      </c>
+      <c r="I3">
+        <v>1159.1686380452</v>
+      </c>
+      <c r="J3">
+        <v>44297001.349412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>13000</v>
+      </c>
+      <c r="B4">
+        <v>0.67305</v>
+      </c>
+      <c r="C4">
+        <v>0.76455</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>98</v>
+      </c>
+      <c r="F4">
+        <v>45.3859892955</v>
+      </c>
+      <c r="G4">
+        <v>51616.291</v>
+      </c>
+      <c r="H4">
+        <v>1504.0444398613</v>
+      </c>
+      <c r="I4">
+        <v>892.13526968585</v>
+      </c>
+      <c r="J4">
+        <v>90841047.646016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>0.672</v>
+      </c>
+      <c r="C5">
+        <v>0.72</v>
+      </c>
+      <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>121</v>
+      </c>
+      <c r="F5">
+        <v>52.690176</v>
+      </c>
+      <c r="G5">
+        <v>53643</v>
+      </c>
+      <c r="H5">
+        <v>1346.4154589273</v>
+      </c>
+      <c r="I5">
+        <v>1029.2039487589</v>
+      </c>
+      <c r="J5">
+        <v>207151312.19107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5000</v>
+      </c>
+      <c r="B6">
+        <v>0.742105</v>
+      </c>
+      <c r="C6">
+        <v>0.932255</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>109</v>
+      </c>
+      <c r="F6">
+        <v>67.868630593628</v>
+      </c>
+      <c r="G6">
+        <v>44516.8451</v>
+      </c>
+      <c r="H6">
+        <v>867.46302569832</v>
+      </c>
+      <c r="I6">
+        <v>1445.6843254797</v>
+      </c>
+      <c r="J6">
+        <v>24195148.430073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6000</v>
+      </c>
+      <c r="B7">
+        <v>0.707105</v>
+      </c>
+      <c r="C7">
+        <v>0.847255</v>
+      </c>
+      <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>109</v>
+      </c>
+      <c r="F7">
+        <v>58.771538008628</v>
+      </c>
+      <c r="G7">
+        <v>48115.1451</v>
+      </c>
+      <c r="H7">
+        <v>1082.7057033187</v>
+      </c>
+      <c r="I7">
+        <v>1258.5167797229</v>
+      </c>
+      <c r="J7">
+        <v>123744784.25405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7000</v>
+      </c>
+      <c r="B8">
+        <v>0.672105</v>
+      </c>
+      <c r="C8">
+        <v>0.762255</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>109</v>
+      </c>
+      <c r="F8">
+        <v>50.258140423628</v>
+      </c>
+      <c r="G8">
+        <v>51713.4451</v>
+      </c>
+      <c r="H8">
+        <v>1360.7950984314</v>
+      </c>
+      <c r="I8">
+        <v>1016.6999144075</v>
+      </c>
+      <c r="J8">
+        <v>165964733.11048</v>
       </c>
     </row>
   </sheetData>
